--- a/Code/Results/Cases/Case_4_73/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_73/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04144237668231</v>
+        <v>20.69072717484972</v>
       </c>
       <c r="C2">
-        <v>13.40960465025931</v>
+        <v>7.952541620753292</v>
       </c>
       <c r="D2">
-        <v>8.708042910355763</v>
+        <v>13.2751333515032</v>
       </c>
       <c r="E2">
-        <v>7.702320527872716</v>
+        <v>13.38522071206944</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.106125434066986</v>
+        <v>3.697049035650651</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.61353832251539</v>
+        <v>28.17620143573518</v>
       </c>
       <c r="J2">
-        <v>4.898025850286932</v>
+        <v>8.187482756625961</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.801308163685201</v>
+        <v>13.0202266327786</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.190344750178</v>
+        <v>30.25265188611007</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.48519486322939</v>
+        <v>20.18841411796762</v>
       </c>
       <c r="C3">
-        <v>12.61036766270567</v>
+        <v>7.515664839384573</v>
       </c>
       <c r="D3">
-        <v>8.55441538652944</v>
+        <v>13.28769929825645</v>
       </c>
       <c r="E3">
-        <v>7.759304142727194</v>
+        <v>13.42499171706828</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.113060255509754</v>
+        <v>3.69965029173114</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.90224965142023</v>
+        <v>28.3336482195954</v>
       </c>
       <c r="J3">
-        <v>4.918402893578552</v>
+        <v>8.195660685478027</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.551456121479903</v>
+        <v>13.00194378577044</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.15264761160511</v>
+        <v>30.3723061299843</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.47844400594365</v>
+        <v>19.87577909099843</v>
       </c>
       <c r="C4">
-        <v>12.09397081687224</v>
+        <v>7.232781118002418</v>
       </c>
       <c r="D4">
-        <v>8.464592484639283</v>
+        <v>13.29788655317368</v>
       </c>
       <c r="E4">
-        <v>7.798088354867567</v>
+        <v>13.45115326932511</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.117441150659185</v>
+        <v>3.701331861627673</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.09670835375878</v>
+        <v>28.4367059193324</v>
       </c>
       <c r="J4">
-        <v>4.931405665188674</v>
+        <v>8.200970172940979</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.398259699846394</v>
+        <v>12.99252058032478</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.15184942954539</v>
+        <v>30.45334626298173</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.05536301061414</v>
+        <v>19.74749282855333</v>
       </c>
       <c r="C5">
-        <v>11.87712358106116</v>
+        <v>7.113879922479143</v>
       </c>
       <c r="D5">
-        <v>8.429135413144973</v>
+        <v>13.30265938585486</v>
       </c>
       <c r="E5">
-        <v>7.814823736283989</v>
+        <v>13.46225280425366</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.119258307131957</v>
+        <v>3.702038405824173</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.18004426639202</v>
+        <v>28.48030676829028</v>
       </c>
       <c r="J5">
-        <v>4.936829361132979</v>
+        <v>8.203206521091111</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.335958301159629</v>
+        <v>12.98913660559778</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.15689034407601</v>
+        <v>30.48826856540904</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.98433865471337</v>
+        <v>19.72614280141868</v>
       </c>
       <c r="C6">
-        <v>11.84073064662724</v>
+        <v>7.093919539464352</v>
       </c>
       <c r="D6">
-        <v>8.423317387136118</v>
+        <v>13.30348943858475</v>
       </c>
       <c r="E6">
-        <v>7.817658156234961</v>
+        <v>13.46412237064967</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.11956200002528</v>
+        <v>3.702157014941517</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.19412298392394</v>
+        <v>28.48764349180543</v>
       </c>
       <c r="J6">
-        <v>4.937737550633553</v>
+        <v>8.203582261619784</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.325623127872287</v>
+        <v>12.98860232071052</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.15804402133492</v>
+        <v>30.49418182434639</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.47279000385703</v>
+        <v>19.8740523242518</v>
       </c>
       <c r="C7">
-        <v>12.09107222894618</v>
+        <v>7.231192162011192</v>
       </c>
       <c r="D7">
-        <v>8.464109639877423</v>
+        <v>13.29794840531265</v>
       </c>
       <c r="E7">
-        <v>7.798310317281697</v>
+        <v>13.45130118550357</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.117465526988143</v>
+        <v>3.701341304031134</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.09781596931965</v>
+        <v>28.43728744305488</v>
       </c>
       <c r="J7">
-        <v>4.931478303196371</v>
+        <v>8.201000038511912</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.397418865220246</v>
+        <v>12.99247309279145</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.15189602266959</v>
+        <v>30.45380956167269</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51549866271994</v>
+        <v>20.51850598521946</v>
       </c>
       <c r="C8">
-        <v>13.13937286079524</v>
+        <v>7.804975582878051</v>
       </c>
       <c r="D8">
-        <v>8.654146004215265</v>
+        <v>13.27895308350092</v>
       </c>
       <c r="E8">
-        <v>7.72116571743051</v>
+        <v>13.39857247521608</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.108491678175438</v>
+        <v>3.697928476635498</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.70937346039481</v>
+        <v>28.22916301905131</v>
       </c>
       <c r="J8">
-        <v>4.904950796659418</v>
+        <v>8.190242820074666</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.715157586815522</v>
+        <v>13.01355033839617</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.1725571469528</v>
+        <v>30.29233339998792</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.16235433724081</v>
+        <v>21.74163793717575</v>
       </c>
       <c r="C9">
-        <v>14.99059820108742</v>
+        <v>8.812073562699023</v>
       </c>
       <c r="D9">
-        <v>9.061872372227755</v>
+        <v>13.2613132107176</v>
       </c>
       <c r="E9">
-        <v>7.601157694695281</v>
+        <v>13.3089732918248</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.091820526577097</v>
+        <v>3.691902287146123</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.09551729853589</v>
+        <v>27.8717598245363</v>
       </c>
       <c r="J9">
-        <v>4.856759588343975</v>
+        <v>8.17142488858393</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.336967007203929</v>
+        <v>13.0690532929507</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.40148447165221</v>
+        <v>30.0360331492904</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.64187008382848</v>
+        <v>22.60652010395209</v>
       </c>
       <c r="C10">
-        <v>16.22600612294788</v>
+        <v>9.478085960658442</v>
       </c>
       <c r="D10">
-        <v>9.381868656348976</v>
+        <v>13.26029621329069</v>
       </c>
       <c r="E10">
-        <v>7.533759526253346</v>
+        <v>13.25153068462993</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.080064489373878</v>
+        <v>3.687876555275492</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.75241329004206</v>
+        <v>27.64019659713573</v>
       </c>
       <c r="J10">
-        <v>4.823588950095046</v>
+        <v>8.158973748580161</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.789506856549785</v>
+        <v>13.11828041595935</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.6992433353189</v>
+        <v>29.88489022964821</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.71231292669701</v>
+        <v>22.990953996889</v>
       </c>
       <c r="C11">
-        <v>16.76121155487494</v>
+        <v>9.76477257957832</v>
       </c>
       <c r="D11">
-        <v>9.531692948572687</v>
+        <v>13.26242038133705</v>
       </c>
       <c r="E11">
-        <v>7.508017695135839</v>
+        <v>13.22721367141487</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.074805747800061</v>
+        <v>3.686131410761507</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.62420270872057</v>
+        <v>27.54161126995355</v>
       </c>
       <c r="J11">
-        <v>4.808961556606439</v>
+        <v>8.15360493574422</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.993841423609815</v>
+        <v>13.14246430515301</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.86582870880024</v>
+        <v>29.82427635168045</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.10952521221483</v>
+        <v>23.13510711427503</v>
       </c>
       <c r="C12">
-        <v>16.96006209383824</v>
+        <v>9.870977363181991</v>
       </c>
       <c r="D12">
-        <v>9.589025699713801</v>
+        <v>13.26359578641327</v>
       </c>
       <c r="E12">
-        <v>7.499014108419367</v>
+        <v>13.21826587526146</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.072825640307556</v>
+        <v>3.685482889463597</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.5800732502364</v>
+        <v>27.50525308709377</v>
       </c>
       <c r="J12">
-        <v>4.803487077564292</v>
+        <v>8.151614144654932</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.07095770264546</v>
+        <v>13.15187525630136</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.93362099676382</v>
+        <v>29.80250024539144</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.02433841408831</v>
+        <v>23.10412641572924</v>
       </c>
       <c r="C13">
-        <v>16.91740536426256</v>
+        <v>9.848209297326713</v>
       </c>
       <c r="D13">
-        <v>9.576651688094282</v>
+        <v>13.26332615773864</v>
       </c>
       <c r="E13">
-        <v>7.50091947067411</v>
+        <v>13.22018136102558</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.073251617082225</v>
+        <v>3.685622012920708</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.58937373161484</v>
+        <v>27.51304011114344</v>
       </c>
       <c r="J13">
-        <v>4.804663261977934</v>
+        <v>8.152041020666932</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.05436149666693</v>
+        <v>13.14983725820768</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.91880761083034</v>
+        <v>29.80713767190754</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.74515422633649</v>
+        <v>23.00284279244207</v>
       </c>
       <c r="C14">
-        <v>16.77764745290018</v>
+        <v>9.773557425060098</v>
       </c>
       <c r="D14">
-        <v>9.536397845098506</v>
+        <v>13.26250965286559</v>
       </c>
       <c r="E14">
-        <v>7.507261826158855</v>
+        <v>13.22647231120188</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.074642626791845</v>
+        <v>3.686077809846198</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.620481053004</v>
+        <v>27.53860052504043</v>
       </c>
       <c r="J14">
-        <v>4.808509884198195</v>
+        <v>8.153440306302231</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.00019125873808</v>
+        <v>13.14323350454749</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.87131031940485</v>
+        <v>29.82246119316438</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.57308953198916</v>
+        <v>22.94061460743494</v>
       </c>
       <c r="C15">
-        <v>16.69154531222738</v>
+        <v>9.72752364058616</v>
       </c>
       <c r="D15">
-        <v>9.511818642469967</v>
+        <v>13.26205780704379</v>
       </c>
       <c r="E15">
-        <v>7.511244775928481</v>
+        <v>13.23035961931734</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.07549607892815</v>
+        <v>3.686358602028406</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.64012381426638</v>
+        <v>27.55438393570821</v>
       </c>
       <c r="J15">
-        <v>4.810874407486614</v>
+        <v>8.154302907042007</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.966975383532212</v>
+        <v>13.13922133314607</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.8428370178401</v>
+        <v>29.83200076238876</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.57076778413957</v>
+        <v>22.58120399156579</v>
       </c>
       <c r="C16">
-        <v>16.19049265700731</v>
+        <v>9.459021187032841</v>
       </c>
       <c r="D16">
-        <v>9.372161628624962</v>
+        <v>13.26020937071383</v>
       </c>
       <c r="E16">
-        <v>7.535543888302356</v>
+        <v>13.25315633261382</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.080409824271477</v>
+        <v>3.687992333132529</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.76138750839566</v>
+        <v>27.64677551738309</v>
       </c>
       <c r="J16">
-        <v>4.824554026848574</v>
+        <v>8.159330537802905</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.776118667662388</v>
+        <v>13.1167355956169</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.68900318696197</v>
+        <v>29.88901586355352</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.94123683568679</v>
+        <v>22.3583158053709</v>
       </c>
       <c r="C17">
-        <v>15.87627169329225</v>
+        <v>9.290120033834144</v>
       </c>
       <c r="D17">
-        <v>9.287565524427261</v>
+        <v>13.25973734988779</v>
       </c>
       <c r="E17">
-        <v>7.551735783428032</v>
+        <v>13.26760574263924</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.083446012648997</v>
+        <v>3.689016600421172</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.84320004229367</v>
+        <v>27.70518651120603</v>
       </c>
       <c r="J17">
-        <v>4.833063092924954</v>
+        <v>8.16249031148083</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.658611091658948</v>
+        <v>13.10339679302097</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.60277361566207</v>
+        <v>29.92608261505449</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.57372694819572</v>
+        <v>22.22927580845086</v>
       </c>
       <c r="C18">
-        <v>15.69301616000615</v>
+        <v>9.191440254241281</v>
       </c>
       <c r="D18">
-        <v>9.239309438308542</v>
+        <v>13.25970940890516</v>
       </c>
       <c r="E18">
-        <v>7.561509459442115</v>
+        <v>13.27608741364135</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.085200838425569</v>
+        <v>3.689613847545074</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.89285272308093</v>
+        <v>27.73941851185299</v>
       </c>
       <c r="J18">
-        <v>4.838000893024955</v>
+        <v>8.164335533971453</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.59088196294014</v>
+        <v>13.09589344940658</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.55609367486163</v>
+        <v>29.94816841077462</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.44835969984504</v>
+        <v>22.18544480241738</v>
       </c>
       <c r="C19">
-        <v>15.63053468144457</v>
+        <v>9.157766346115178</v>
       </c>
       <c r="D19">
-        <v>9.223040178497449</v>
+        <v>13.25974180444464</v>
       </c>
       <c r="E19">
-        <v>7.564896666078556</v>
+        <v>13.27898849818522</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.085796495816242</v>
+        <v>3.689817461042138</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.91009814935469</v>
+        <v>27.7511179529433</v>
       </c>
       <c r="J19">
-        <v>4.839680292475063</v>
+        <v>8.164965076072876</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.567927059952467</v>
+        <v>13.09338206476135</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.54078241192666</v>
+        <v>29.95577764539009</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.00881156350714</v>
+        <v>22.38213059876524</v>
       </c>
       <c r="C20">
-        <v>15.90998206941336</v>
+        <v>9.308258563276391</v>
       </c>
       <c r="D20">
-        <v>9.296529499862967</v>
+        <v>13.25976239670348</v>
       </c>
       <c r="E20">
-        <v>7.549964205450946</v>
+        <v>13.26604990829545</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.083121937324963</v>
+        <v>3.688906725955249</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.83421936910638</v>
+        <v>27.69890276555777</v>
       </c>
       <c r="J20">
-        <v>4.832152787956812</v>
+        <v>8.162151071982956</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.671134981004448</v>
+        <v>13.10479929401131</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.61164928458256</v>
+        <v>29.92205747384078</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.8273772877289</v>
+        <v>23.03263185868276</v>
       </c>
       <c r="C21">
-        <v>16.81880111497862</v>
+        <v>9.79554856366506</v>
       </c>
       <c r="D21">
-        <v>9.548205257883543</v>
+        <v>13.26273941917542</v>
       </c>
       <c r="E21">
-        <v>7.505378414165517</v>
+        <v>13.22461743839427</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.074233760864298</v>
+        <v>3.685943597209016</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.61122062199705</v>
+        <v>27.53106635699869</v>
       </c>
       <c r="J21">
-        <v>4.807378300028651</v>
+        <v>8.153028156788988</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.01610973476302</v>
+        <v>13.14516635592709</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.88513177979996</v>
+        <v>29.81792830959403</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.96852649173454</v>
+        <v>23.44942158536363</v>
       </c>
       <c r="C22">
-        <v>17.39052165647394</v>
+        <v>10.1002769843646</v>
       </c>
       <c r="D22">
-        <v>9.716168511823021</v>
+        <v>13.26684712091626</v>
       </c>
       <c r="E22">
-        <v>7.480596429920981</v>
+        <v>13.19905734768358</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.068489659406978</v>
+        <v>3.684078842628144</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.49146432026021</v>
+        <v>27.42705379385362</v>
       </c>
       <c r="J22">
-        <v>4.79156234237528</v>
+        <v>8.147312047788912</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.2400374588297</v>
+        <v>13.17302125341205</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.0914245268272</v>
+        <v>29.75673742066623</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.36376572641487</v>
+        <v>23.22777693373491</v>
       </c>
       <c r="C23">
-        <v>17.08740608458061</v>
+        <v>9.93889918587786</v>
       </c>
       <c r="D23">
-        <v>9.626209023535774</v>
+        <v>13.26445730590213</v>
       </c>
       <c r="E23">
-        <v>7.493411385544981</v>
+        <v>13.21256041390826</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.071550010495943</v>
+        <v>3.68506754717164</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.55285707863767</v>
+        <v>27.48204676193708</v>
       </c>
       <c r="J23">
-        <v>4.799969883008876</v>
+        <v>8.150340376466382</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.12067472582138</v>
+        <v>13.15802133241976</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.97872589177251</v>
+        <v>29.7887661141724</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.97827843202228</v>
+        <v>22.37136671973434</v>
       </c>
       <c r="C24">
-        <v>15.89474972689463</v>
+        <v>9.300063042682453</v>
       </c>
       <c r="D24">
-        <v>9.292475703857439</v>
+        <v>13.25975031471495</v>
       </c>
       <c r="E24">
-        <v>7.550763691067985</v>
+        <v>13.26675275738318</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.083268422755563</v>
+        <v>3.688956374085107</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.83827140920675</v>
+        <v>27.701741620057</v>
       </c>
       <c r="J24">
-        <v>4.832564193960237</v>
+        <v>8.162304352973711</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.665473464584148</v>
+        <v>13.10416470805541</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.60762759641791</v>
+        <v>29.92387482454577</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.19745236185775</v>
+        <v>21.4160654809149</v>
       </c>
       <c r="C25">
-        <v>14.51173893582784</v>
+        <v>8.552498046916746</v>
       </c>
       <c r="D25">
-        <v>8.947913423198052</v>
+        <v>13.26398629721947</v>
       </c>
       <c r="E25">
-        <v>7.630106122074166</v>
+        <v>13.33173759926146</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.096238502888514</v>
+        <v>3.693461661921299</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.24402940240989</v>
+        <v>27.96300662918972</v>
       </c>
       <c r="J25">
-        <v>4.869396637544165</v>
+        <v>8.176273296881536</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.16927695331308</v>
+        <v>13.05253978295331</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.31783800891422</v>
+        <v>30.09886932192485</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_73/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_73/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.69072717484972</v>
+        <v>24.04144237668229</v>
       </c>
       <c r="C2">
-        <v>7.952541620753292</v>
+        <v>13.40960465025948</v>
       </c>
       <c r="D2">
-        <v>13.2751333515032</v>
+        <v>8.708042910355788</v>
       </c>
       <c r="E2">
-        <v>13.38522071206944</v>
+        <v>7.702320527872788</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.697049035650651</v>
+        <v>2.106125434066985</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.17620143573518</v>
+        <v>16.61353832251534</v>
       </c>
       <c r="J2">
-        <v>8.187482756625961</v>
+        <v>4.898025850287032</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.0202266327786</v>
+        <v>8.801308163685153</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.25265188611007</v>
+        <v>19.19034475017788</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.18841411796762</v>
+        <v>22.48519486322938</v>
       </c>
       <c r="C3">
-        <v>7.515664839384573</v>
+        <v>12.6103676627056</v>
       </c>
       <c r="D3">
-        <v>13.28769929825645</v>
+        <v>8.554415386529428</v>
       </c>
       <c r="E3">
-        <v>13.42499171706828</v>
+        <v>7.759304142727196</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.69965029173114</v>
+        <v>2.113060255510021</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.3336482195954</v>
+        <v>16.90224965142038</v>
       </c>
       <c r="J3">
-        <v>8.195660685478027</v>
+        <v>4.918402893578517</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.00194378577044</v>
+        <v>8.551456121479944</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.3723061299843</v>
+        <v>19.15264761160531</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.87577909099843</v>
+        <v>21.47844400594367</v>
       </c>
       <c r="C4">
-        <v>7.232781118002418</v>
+        <v>12.09397081687226</v>
       </c>
       <c r="D4">
-        <v>13.29788655317368</v>
+        <v>8.464592484639216</v>
       </c>
       <c r="E4">
-        <v>13.45115326932511</v>
+        <v>7.798088354867446</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.701331861627673</v>
+        <v>2.117441150659052</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.4367059193324</v>
+        <v>17.09670835375888</v>
       </c>
       <c r="J4">
-        <v>8.200970172940979</v>
+        <v>4.931405665188606</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.99252058032478</v>
+        <v>8.398259699846298</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.45334626298173</v>
+        <v>19.15184942954548</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.74749282855333</v>
+        <v>21.05536301061413</v>
       </c>
       <c r="C5">
-        <v>7.113879922479143</v>
+        <v>11.87712358106102</v>
       </c>
       <c r="D5">
-        <v>13.30265938585486</v>
+        <v>8.429135413145069</v>
       </c>
       <c r="E5">
-        <v>13.46225280425366</v>
+        <v>7.814823736283992</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.702038405824173</v>
+        <v>2.119258307131691</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.48030676829028</v>
+        <v>17.18004426639216</v>
       </c>
       <c r="J5">
-        <v>8.203206521091111</v>
+        <v>4.936829361132944</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.98913660559778</v>
+        <v>8.335958301159648</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.48826856540904</v>
+        <v>19.15689034407616</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.72614280141868</v>
+        <v>20.9843386547134</v>
       </c>
       <c r="C6">
-        <v>7.093919539464352</v>
+        <v>11.8407306466273</v>
       </c>
       <c r="D6">
-        <v>13.30348943858475</v>
+        <v>8.42331738713597</v>
       </c>
       <c r="E6">
-        <v>13.46412237064967</v>
+        <v>7.817658156235018</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.702157014941517</v>
+        <v>2.119562000025145</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.48764349180543</v>
+        <v>17.19412298392386</v>
       </c>
       <c r="J6">
-        <v>8.203582261619784</v>
+        <v>4.937737550633722</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.98860232071052</v>
+        <v>8.325623127872372</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.49418182434639</v>
+        <v>19.15804402133485</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.8740523242518</v>
+        <v>21.47279000385702</v>
       </c>
       <c r="C7">
-        <v>7.231192162011192</v>
+        <v>12.09107222894615</v>
       </c>
       <c r="D7">
-        <v>13.29794840531265</v>
+        <v>8.464109639877467</v>
       </c>
       <c r="E7">
-        <v>13.45130118550357</v>
+        <v>7.798310317281826</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.701341304031134</v>
+        <v>2.117465526988144</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.43728744305488</v>
+        <v>17.09781596931973</v>
       </c>
       <c r="J7">
-        <v>8.201000038511912</v>
+        <v>4.931478303196373</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.99247309279145</v>
+        <v>8.397418865220249</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.45380956167269</v>
+        <v>19.15189602266964</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.51850598521946</v>
+        <v>23.51549866271993</v>
       </c>
       <c r="C8">
-        <v>7.804975582878051</v>
+        <v>13.13937286079515</v>
       </c>
       <c r="D8">
-        <v>13.27895308350092</v>
+        <v>8.65414600421523</v>
       </c>
       <c r="E8">
-        <v>13.39857247521608</v>
+        <v>7.721165717430691</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.697928476635498</v>
+        <v>2.108491678175436</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.22916301905131</v>
+        <v>16.70937346039498</v>
       </c>
       <c r="J8">
-        <v>8.190242820074666</v>
+        <v>4.904950796659518</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.01355033839617</v>
+        <v>8.715157586815607</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.29233339998792</v>
+        <v>19.17255714695301</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.74163793717575</v>
+        <v>27.16235433724083</v>
       </c>
       <c r="C9">
-        <v>8.812073562699023</v>
+        <v>14.9905982010875</v>
       </c>
       <c r="D9">
-        <v>13.2613132107176</v>
+        <v>9.061872372227906</v>
       </c>
       <c r="E9">
-        <v>13.3089732918248</v>
+        <v>7.60115769469539</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.691902287146123</v>
+        <v>2.091820526577095</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.8717598245363</v>
+        <v>16.09551729853577</v>
       </c>
       <c r="J9">
-        <v>8.17142488858393</v>
+        <v>4.856759588343908</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.0690532929507</v>
+        <v>9.336967007203965</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.0360331492904</v>
+        <v>19.40148447165209</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.60652010395209</v>
+        <v>29.64187008382846</v>
       </c>
       <c r="C10">
-        <v>9.478085960658442</v>
+        <v>16.22600612294797</v>
       </c>
       <c r="D10">
-        <v>13.26029621329069</v>
+        <v>9.381868656348988</v>
       </c>
       <c r="E10">
-        <v>13.25153068462993</v>
+        <v>7.533759526253342</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.687876555275492</v>
+        <v>2.080064489374012</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.64019659713573</v>
+        <v>15.75241329004207</v>
       </c>
       <c r="J10">
-        <v>8.158973748580161</v>
+        <v>4.823588950095047</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.11828041595935</v>
+        <v>9.789506856549755</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>29.88489022964821</v>
+        <v>19.6992433353189</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.990953996889</v>
+        <v>30.71231292669704</v>
       </c>
       <c r="C11">
-        <v>9.76477257957832</v>
+        <v>16.76121155487481</v>
       </c>
       <c r="D11">
-        <v>13.26242038133705</v>
+        <v>9.531692948572699</v>
       </c>
       <c r="E11">
-        <v>13.22721367141487</v>
+        <v>7.508017695135852</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.686131410761507</v>
+        <v>2.074805747800196</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.54161126995355</v>
+        <v>15.62420270872059</v>
       </c>
       <c r="J11">
-        <v>8.15360493574422</v>
+        <v>4.808961556606405</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.14246430515301</v>
+        <v>9.993841423609842</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>29.82427635168045</v>
+        <v>19.86582870880031</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.13510711427503</v>
+        <v>31.10952521221486</v>
       </c>
       <c r="C12">
-        <v>9.870977363181991</v>
+        <v>16.96006209383816</v>
       </c>
       <c r="D12">
-        <v>13.26359578641327</v>
+        <v>9.589025699713915</v>
       </c>
       <c r="E12">
-        <v>13.21826587526146</v>
+        <v>7.499014108419268</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.685482889463597</v>
+        <v>2.072825640307554</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.50525308709377</v>
+        <v>15.58007325023638</v>
       </c>
       <c r="J12">
-        <v>8.151614144654932</v>
+        <v>4.803487077564124</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.15187525630136</v>
+        <v>10.07095770264541</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>29.80250024539144</v>
+        <v>19.93362099676383</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.10412641572924</v>
+        <v>31.02433841408825</v>
       </c>
       <c r="C13">
-        <v>9.848209297326713</v>
+        <v>16.91740536426265</v>
       </c>
       <c r="D13">
-        <v>13.26332615773864</v>
+        <v>9.576651688094266</v>
       </c>
       <c r="E13">
-        <v>13.22018136102558</v>
+        <v>7.500919470674047</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.685622012920708</v>
+        <v>2.073251617082492</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.51304011114344</v>
+        <v>15.58937373161485</v>
       </c>
       <c r="J13">
-        <v>8.152041020666932</v>
+        <v>4.8046632619779</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.14983725820768</v>
+        <v>10.05436149666689</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>29.80713767190754</v>
+        <v>19.91880761083033</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.00284279244207</v>
+        <v>30.74515422633651</v>
       </c>
       <c r="C14">
-        <v>9.773557425060098</v>
+        <v>16.77764745290013</v>
       </c>
       <c r="D14">
-        <v>13.26250965286559</v>
+        <v>9.536397845098426</v>
       </c>
       <c r="E14">
-        <v>13.22647231120188</v>
+        <v>7.507261826158746</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.686077809846198</v>
+        <v>2.074642626791848</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.53860052504043</v>
+        <v>15.62048105300385</v>
       </c>
       <c r="J14">
-        <v>8.153440306302231</v>
+        <v>4.80850988419816</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.14323350454749</v>
+        <v>10.00019125873808</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>29.82246119316438</v>
+        <v>19.87131031940475</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.94061460743494</v>
+        <v>30.5730895319891</v>
       </c>
       <c r="C15">
-        <v>9.72752364058616</v>
+        <v>16.69154531222723</v>
       </c>
       <c r="D15">
-        <v>13.26205780704379</v>
+        <v>9.511818642470079</v>
       </c>
       <c r="E15">
-        <v>13.23035961931734</v>
+        <v>7.511244775928377</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.686358602028406</v>
+        <v>2.075496078928417</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.55438393570821</v>
+        <v>15.6401238142667</v>
       </c>
       <c r="J15">
-        <v>8.154302907042007</v>
+        <v>4.810874407486545</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.13922133314607</v>
+        <v>9.96697538353224</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>29.83200076238876</v>
+        <v>19.84283701784035</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.58120399156579</v>
+        <v>29.57076778413954</v>
       </c>
       <c r="C16">
-        <v>9.459021187032841</v>
+        <v>16.19049265700726</v>
       </c>
       <c r="D16">
-        <v>13.26020937071383</v>
+        <v>9.372161628624994</v>
       </c>
       <c r="E16">
-        <v>13.25315633261382</v>
+        <v>7.535543888302475</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.687992333132529</v>
+        <v>2.080409824271478</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.64677551738309</v>
+        <v>15.76138750839574</v>
       </c>
       <c r="J16">
-        <v>8.159330537802905</v>
+        <v>4.824554026848642</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.1167355956169</v>
+        <v>9.776118667662431</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>29.88901586355352</v>
+        <v>19.689003186962</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.3583158053709</v>
+        <v>28.94123683568679</v>
       </c>
       <c r="C17">
-        <v>9.290120033834144</v>
+        <v>15.87627169329221</v>
       </c>
       <c r="D17">
-        <v>13.25973734988779</v>
+        <v>9.287565524427215</v>
       </c>
       <c r="E17">
-        <v>13.26760574263924</v>
+        <v>7.55173578342815</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.689016600421172</v>
+        <v>2.083446012649126</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.70518651120603</v>
+        <v>15.84320004229372</v>
       </c>
       <c r="J17">
-        <v>8.16249031148083</v>
+        <v>4.833063092925088</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.10339679302097</v>
+        <v>9.658611091658967</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>29.92608261505449</v>
+        <v>19.60277361566211</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.22927580845086</v>
+        <v>28.57372694819568</v>
       </c>
       <c r="C18">
-        <v>9.191440254241281</v>
+        <v>15.69301616000612</v>
       </c>
       <c r="D18">
-        <v>13.25970940890516</v>
+        <v>9.239309438308547</v>
       </c>
       <c r="E18">
-        <v>13.27608741364135</v>
+        <v>7.561509459442217</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.689613847545074</v>
+        <v>2.085200838425834</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.73941851185299</v>
+        <v>15.89285272308101</v>
       </c>
       <c r="J18">
-        <v>8.164335533971453</v>
+        <v>4.83800089302509</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.09589344940658</v>
+        <v>9.590881962940202</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>29.94816841077462</v>
+        <v>19.55609367486167</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.18544480241738</v>
+        <v>28.44835969984502</v>
       </c>
       <c r="C19">
-        <v>9.157766346115178</v>
+        <v>15.63053468144452</v>
       </c>
       <c r="D19">
-        <v>13.25974180444464</v>
+        <v>9.2230401784975</v>
       </c>
       <c r="E19">
-        <v>13.27898849818522</v>
+        <v>7.564896666078667</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.689817461042138</v>
+        <v>2.085796495816107</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.7511179529433</v>
+        <v>15.91009814935497</v>
       </c>
       <c r="J19">
-        <v>8.164965076072876</v>
+        <v>4.839680292475061</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.09338206476135</v>
+        <v>9.567927059952503</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>29.95577764539009</v>
+        <v>19.54078241192691</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.38213059876524</v>
+        <v>29.00881156350714</v>
       </c>
       <c r="C20">
-        <v>9.308258563276391</v>
+        <v>15.90998206941316</v>
       </c>
       <c r="D20">
-        <v>13.25976239670348</v>
+        <v>9.296529499862944</v>
       </c>
       <c r="E20">
-        <v>13.26604990829545</v>
+        <v>7.549964205450903</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.688906725955249</v>
+        <v>2.083121937324829</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.69890276555777</v>
+        <v>15.83421936910643</v>
       </c>
       <c r="J20">
-        <v>8.162151071982956</v>
+        <v>4.832152787956844</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.10479929401131</v>
+        <v>9.671134981004451</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>29.92205747384078</v>
+        <v>19.61164928458264</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.03263185868276</v>
+        <v>30.82737728772885</v>
       </c>
       <c r="C21">
-        <v>9.79554856366506</v>
+        <v>16.81880111497852</v>
       </c>
       <c r="D21">
-        <v>13.26273941917542</v>
+        <v>9.548205257883559</v>
       </c>
       <c r="E21">
-        <v>13.22461743839427</v>
+        <v>7.505378414165534</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.685943597209016</v>
+        <v>2.074233760864299</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.53106635699869</v>
+        <v>15.61122062199726</v>
       </c>
       <c r="J21">
-        <v>8.153028156788988</v>
+        <v>4.807378300028682</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.14516635592709</v>
+        <v>10.01610973476303</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>29.81792830959403</v>
+        <v>19.88513177980014</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.44942158536363</v>
+        <v>31.9685264917345</v>
       </c>
       <c r="C22">
-        <v>10.1002769843646</v>
+        <v>17.39052165647393</v>
       </c>
       <c r="D22">
-        <v>13.26684712091626</v>
+        <v>9.716168511823069</v>
       </c>
       <c r="E22">
-        <v>13.19905734768358</v>
+        <v>7.480596429921022</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.684078842628144</v>
+        <v>2.068489659406978</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.42705379385362</v>
+        <v>15.4914643202604</v>
       </c>
       <c r="J22">
-        <v>8.147312047788912</v>
+        <v>4.79156234237528</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.17302125341205</v>
+        <v>10.24003745882972</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>29.75673742066623</v>
+        <v>20.09142452682733</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.22777693373491</v>
+        <v>31.36376572641488</v>
       </c>
       <c r="C23">
-        <v>9.93889918587786</v>
+        <v>17.08740608458066</v>
       </c>
       <c r="D23">
-        <v>13.26445730590213</v>
+        <v>9.626209023535774</v>
       </c>
       <c r="E23">
-        <v>13.21256041390826</v>
+        <v>7.493411385545087</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.68506754717164</v>
+        <v>2.071550010496075</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.48204676193708</v>
+        <v>15.55285707863772</v>
       </c>
       <c r="J23">
-        <v>8.150340376466382</v>
+        <v>4.799969883008943</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.15802133241976</v>
+        <v>10.12067472582141</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>29.7887661141724</v>
+        <v>19.97872589177255</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.37136671973434</v>
+        <v>28.97827843202231</v>
       </c>
       <c r="C24">
-        <v>9.300063042682453</v>
+        <v>15.89474972689462</v>
       </c>
       <c r="D24">
-        <v>13.25975031471495</v>
+        <v>9.292475703857534</v>
       </c>
       <c r="E24">
-        <v>13.26675275738318</v>
+        <v>7.550763691068108</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.688956374085107</v>
+        <v>2.083268422755964</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.701741620057</v>
+        <v>15.83827140920679</v>
       </c>
       <c r="J24">
-        <v>8.162304352973711</v>
+        <v>4.83256419396027</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.10416470805541</v>
+        <v>9.665473464584176</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>29.92387482454577</v>
+        <v>19.60762759641794</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.4160654809149</v>
+        <v>26.19745236185777</v>
       </c>
       <c r="C25">
-        <v>8.552498046916746</v>
+        <v>14.51173893582789</v>
       </c>
       <c r="D25">
-        <v>13.26398629721947</v>
+        <v>8.947913423198129</v>
       </c>
       <c r="E25">
-        <v>13.33173759926146</v>
+        <v>7.630106122074112</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.693461661921299</v>
+        <v>2.096238502888648</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.96300662918972</v>
+        <v>16.24402940240991</v>
       </c>
       <c r="J25">
-        <v>8.176273296881536</v>
+        <v>4.869396637544062</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.05253978295331</v>
+        <v>9.169276953313068</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.09886932192485</v>
+        <v>19.31783800891422</v>
       </c>
     </row>
   </sheetData>
